--- a/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -148,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -162,11 +162,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="5">
@@ -207,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -231,17 +226,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -547,7 +533,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,7 +599,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="2">
@@ -684,10 +670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -698,7 +684,7 @@
     <col min="6" max="6" width="9.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
@@ -718,7 +704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
         <v>10000</v>
       </c>
@@ -736,7 +722,7 @@
         <v>1576.98</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>687.81</v>
       </c>
@@ -756,7 +742,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>0</v>
       </c>
@@ -776,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>0</v>
       </c>
@@ -795,31 +781,6 @@
       <c r="F5" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="11"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -829,10 +790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1540,9 +1501,6 @@
         <v>914.42</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="O16" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -16,10 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
-  <si>
-    <t>click</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
   <si>
     <t>newloan</t>
   </si>
@@ -30,9 +27,6 @@
     <t>disbursementon</t>
   </si>
   <si>
-    <t>submittedon</t>
-  </si>
-  <si>
     <t>approve</t>
   </si>
   <si>
@@ -42,9 +36,6 @@
     <t>heading</t>
   </si>
   <si>
-    <t>submitbutton</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
@@ -124,6 +115,33 @@
   </si>
   <si>
     <t>Late</t>
+  </si>
+  <si>
+    <t>clickonnewloan</t>
+  </si>
+  <si>
+    <t>submitteddateon</t>
+  </si>
+  <si>
+    <t>submitloan</t>
+  </si>
+  <si>
+    <t>clickonapprove</t>
+  </si>
+  <si>
+    <t>submitapprove</t>
+  </si>
+  <si>
+    <t>clickondisburse</t>
+  </si>
+  <si>
+    <t>submitdisburse</t>
+  </si>
+  <si>
+    <t>approveloan</t>
+  </si>
+  <si>
+    <t>disburseloan</t>
   </si>
 </sst>
 </file>
@@ -526,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -540,23 +558,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="B3" s="3">
         <v>42005</v>
@@ -564,7 +582,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42005</v>
@@ -572,7 +590,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8">
         <v>10000</v>
@@ -580,15 +598,15 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>42005</v>
@@ -596,7 +614,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>10000</v>
@@ -604,23 +622,23 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="3">
         <v>42005</v>
@@ -628,18 +646,34 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="3">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="3">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -666,22 +700,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -797,7 +831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -808,52 +842,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">

--- a/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
+++ b/Mifos Automation Excels/Client/53-RBI-EI-DB-SAR-REC-NOCOM-RNI-CTPD-SAR-MD-TR-1-ONTIME-Newcreateloan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="9" r:id="rId1"/>
@@ -532,7 +532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -673,7 +673,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -790,10 +790,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -801,7 +801,7 @@
     <col min="3" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -841,17 +841,18 @@
       <c r="M1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -891,17 +892,18 @@
       <c r="M2" s="6">
         <v>0</v>
       </c>
-      <c r="N2" s="6">
-        <v>0</v>
-      </c>
+      <c r="N2" s="6"/>
       <c r="O2" s="6">
         <v>0</v>
       </c>
       <c r="P2" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -941,17 +943,18 @@
       <c r="M3" s="6">
         <v>0</v>
       </c>
-      <c r="N3" s="6">
-        <v>0</v>
-      </c>
+      <c r="N3" s="6"/>
       <c r="O3" s="6">
         <v>0</v>
       </c>
       <c r="P3" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -991,17 +994,18 @@
       <c r="M4" s="6">
         <v>0</v>
       </c>
-      <c r="N4" s="6">
-        <v>0</v>
-      </c>
+      <c r="N4" s="6"/>
       <c r="O4" s="6">
         <v>0</v>
       </c>
       <c r="P4" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -1041,17 +1045,18 @@
       <c r="M5" s="6">
         <v>0</v>
       </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
+      <c r="N5" s="6"/>
       <c r="O5" s="6">
         <v>0</v>
       </c>
       <c r="P5" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -1091,17 +1096,18 @@
       <c r="M6" s="6">
         <v>0</v>
       </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
+      <c r="N6" s="6"/>
       <c r="O6" s="6">
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -1141,17 +1147,18 @@
       <c r="M7" s="6">
         <v>0</v>
       </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
+      <c r="N7" s="6"/>
       <c r="O7" s="6">
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -1191,17 +1198,18 @@
       <c r="M8" s="6">
         <v>0</v>
       </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+      <c r="N8" s="6"/>
       <c r="O8" s="6">
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -1241,17 +1249,18 @@
       <c r="M9" s="6">
         <v>0</v>
       </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+      <c r="N9" s="6"/>
       <c r="O9" s="6">
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -1291,17 +1300,18 @@
       <c r="M10" s="6">
         <v>0</v>
       </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
+      <c r="N10" s="6"/>
       <c r="O10" s="6">
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -1341,17 +1351,18 @@
       <c r="M11" s="6">
         <v>0</v>
       </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
+      <c r="N11" s="6"/>
       <c r="O11" s="6">
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -1391,17 +1402,18 @@
       <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
+      <c r="N12" s="6"/>
       <c r="O12" s="6">
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -1441,17 +1453,18 @@
       <c r="M13" s="6">
         <v>0</v>
       </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
+      <c r="N13" s="6"/>
       <c r="O13" s="6">
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>888.49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>888.49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -1491,13 +1504,14 @@
       <c r="M14" s="6">
         <v>0</v>
       </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
+      <c r="N14" s="6"/>
       <c r="O14" s="6">
         <v>0</v>
       </c>
       <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="6">
         <v>914.42</v>
       </c>
     </row>
